--- a/data/trans_media/IQ18D_M-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ18D_M-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 22,09</t>
+          <t>15,06; 22,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 20,82</t>
+          <t>13,07; 21,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 16,85</t>
+          <t>8,17; 16,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,83</t>
+          <t>4,69; 12,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 28,14</t>
+          <t>19,68; 27,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 28,15</t>
+          <t>15,06; 27,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,49</t>
+          <t>10,42; 17,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,9</t>
+          <t>3,58; 13,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 23,55</t>
+          <t>17,79; 23,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 22,34</t>
+          <t>15,21; 22,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,74</t>
+          <t>9,69; 15,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,27</t>
+          <t>4,83; 11,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,43; 24,55</t>
+          <t>20,3; 24,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 24,2</t>
+          <t>17,77; 24,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,06</t>
+          <t>13,51; 18,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 31,75</t>
+          <t>7,9; 31,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 23,85</t>
+          <t>19,32; 23,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 23,79</t>
+          <t>17,16; 23,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 23,45</t>
+          <t>15,7; 23,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 26,94</t>
+          <t>11,21; 27,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,35</t>
+          <t>20,26; 23,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 22,53</t>
+          <t>18,21; 22,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,31</t>
+          <t>15,02; 19,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 28,53</t>
+          <t>10,42; 27,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,29</t>
+          <t>18,4; 22,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 23,33</t>
+          <t>19,55; 23,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 21,75</t>
+          <t>17,2; 21,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,64</t>
+          <t>10,45; 15,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,89; 28,47</t>
+          <t>21,87; 28,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 22,71</t>
+          <t>18,83; 22,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,06</t>
+          <t>17,11; 22,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 36,73</t>
+          <t>13,56; 42,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,82; 24,43</t>
+          <t>20,69; 24,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 22,54</t>
+          <t>19,65; 22,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 21,06</t>
+          <t>17,58; 21,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,74</t>
+          <t>12,49; 22,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 24,22</t>
+          <t>18,71; 23,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,67</t>
+          <t>18,1; 22,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,62</t>
+          <t>15,25; 24,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 30,99</t>
+          <t>15,66; 30,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,09</t>
+          <t>18,65; 22,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 23,98</t>
+          <t>18,26; 23,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 17,14</t>
+          <t>13,33; 16,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 23,22</t>
+          <t>12,0; 23,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 22,54</t>
+          <t>19,21; 22,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,28</t>
+          <t>18,89; 22,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,62</t>
+          <t>14,79; 19,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,4</t>
+          <t>15,2; 24,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,96</t>
+          <t>19,94; 24,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,02; 22,64</t>
+          <t>18,04; 22,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 18,3</t>
+          <t>14,71; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 49,47</t>
+          <t>12,76; 49,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 22,08</t>
+          <t>18,32; 21,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,5; 21,34</t>
+          <t>17,7; 21,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 17,94</t>
+          <t>14,74; 17,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,72; 25,0</t>
+          <t>11,62; 24,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,6</t>
+          <t>19,71; 22,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,33</t>
+          <t>18,39; 21,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,2; 17,55</t>
+          <t>15,15; 17,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,97; 32,24</t>
+          <t>14,11; 31,93</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 22,4</t>
+          <t>20,18; 22,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 21,58</t>
+          <t>19,37; 21,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,62</t>
+          <t>16,08; 18,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,08</t>
+          <t>13,71; 22,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,11</t>
+          <t>20,6; 23,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,05; 21,23</t>
+          <t>18,83; 21,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 18,22</t>
+          <t>15,99; 18,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,32</t>
+          <t>14,05; 22,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,34</t>
+          <t>20,67; 22,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,47; 21,05</t>
+          <t>19,38; 21,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 18,11</t>
+          <t>16,34; 17,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,91</t>
+          <t>14,4; 20,8</t>
         </is>
       </c>
     </row>
